--- a/src/Data/Scalability/CluStream/Clustream-Dimension-KDD98-Throughput-xDimension.xlsx
+++ b/src/Data/Scalability/CluStream/Clustream-Dimension-KDD98-Throughput-xDimension.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Documents/ISCAS/StreamingML/document/clustering/streamclustering/TestResult/pic/0522Dimension/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Repositories/PythonGraph/src/Data/Scalability/CluStream/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,22 +471,22 @@
         <v>50</v>
       </c>
       <c r="B2" s="1">
-        <v>20369.964569191899</v>
+        <v>20.3699645691919</v>
       </c>
       <c r="C2" s="1">
-        <v>38832.260034419502</v>
+        <v>38.832260034419498</v>
       </c>
       <c r="D2" s="1">
-        <v>66870.596383959404</v>
+        <v>66.870596383959409</v>
       </c>
       <c r="E2" s="1">
-        <v>106833.823024382</v>
+        <v>106.833823024382</v>
       </c>
       <c r="F2" s="1">
-        <v>111919.291653341</v>
+        <v>111.91929165334101</v>
       </c>
       <c r="G2" s="1">
-        <v>126839.98550265</v>
+        <v>126.83998550264999</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -494,22 +494,22 @@
         <v>100</v>
       </c>
       <c r="B3" s="1">
-        <v>11090.2928008241</v>
+        <v>11.0902928008241</v>
       </c>
       <c r="C3" s="1">
-        <v>21284.712983587098</v>
+        <v>21.284712983587099</v>
       </c>
       <c r="D3" s="1">
-        <v>36042.882154535298</v>
+        <v>36.042882154535299</v>
       </c>
       <c r="E3" s="1">
-        <v>63450.5200661696</v>
+        <v>63.450520066169602</v>
       </c>
       <c r="F3" s="1">
-        <v>77260.996743749594</v>
+        <v>77.260996743749601</v>
       </c>
       <c r="G3" s="1">
-        <v>85055.499863300807</v>
+        <v>85.05549986330081</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -517,22 +517,22 @@
         <v>150</v>
       </c>
       <c r="B4" s="1">
-        <v>7397.1729369942104</v>
+        <v>7.3971729369942105</v>
       </c>
       <c r="C4" s="1">
-        <v>14362.2074728839</v>
+        <v>14.362207472883899</v>
       </c>
       <c r="D4" s="1">
-        <v>27044.928950240999</v>
+        <v>27.044928950240998</v>
       </c>
       <c r="E4" s="1">
-        <v>43285.2792035124</v>
+        <v>43.285279203512403</v>
       </c>
       <c r="F4" s="1">
-        <v>66069.373982396894</v>
+        <v>66.069373982396897</v>
       </c>
       <c r="G4" s="1">
-        <v>71296.646209478204</v>
+        <v>71.296646209478197</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -540,22 +540,22 @@
         <v>200</v>
       </c>
       <c r="B5" s="1">
-        <v>5567.6092084440597</v>
+        <v>5.5676092084440594</v>
       </c>
       <c r="C5" s="1">
-        <v>10776.2160248169</v>
+        <v>10.7762160248169</v>
       </c>
       <c r="D5" s="1">
-        <v>20645.3358896836</v>
+        <v>20.645335889683601</v>
       </c>
       <c r="E5" s="1">
-        <v>34553.053404999999</v>
+        <v>34.553053405</v>
       </c>
       <c r="F5" s="1">
-        <v>53076.224598119501</v>
+        <v>53.076224598119502</v>
       </c>
       <c r="G5" s="1">
-        <v>61530.3036962158</v>
+        <v>61.530303696215803</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -563,22 +563,22 @@
         <v>250</v>
       </c>
       <c r="B6" s="1">
-        <v>4504.0734543970602</v>
+        <v>4.5040734543970604</v>
       </c>
       <c r="C6" s="1">
-        <v>8695.1655971268701</v>
+        <v>8.69516559712687</v>
       </c>
       <c r="D6" s="1">
-        <v>16504.503548607601</v>
+        <v>16.504503548607602</v>
       </c>
       <c r="E6" s="1">
-        <v>28590.056467176499</v>
+        <v>28.590056467176499</v>
       </c>
       <c r="F6" s="1">
-        <v>46526.087534478698</v>
+        <v>46.526087534478698</v>
       </c>
       <c r="G6" s="1">
-        <v>54262.490794216799</v>
+        <v>54.262490794216802</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -586,22 +586,22 @@
         <v>315</v>
       </c>
       <c r="B7" s="1">
-        <v>3517.8845379999998</v>
+        <v>3.5178845379999997</v>
       </c>
       <c r="C7" s="1">
-        <v>6669.5220010000003</v>
+        <v>6.6695220010000007</v>
       </c>
       <c r="D7" s="1">
-        <v>12735.207689999999</v>
+        <v>12.735207689999999</v>
       </c>
       <c r="E7" s="1">
-        <v>23196.054550000001</v>
+        <v>23.196054549999999</v>
       </c>
       <c r="F7" s="1">
-        <v>36844.791279999998</v>
+        <v>36.844791279999995</v>
       </c>
       <c r="G7" s="1">
-        <v>46481.566899999998</v>
+        <v>46.481566899999997</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -612,44 +612,14 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
